--- a/biology/Microbiologie/Legionella_erythra/Legionella_erythra.xlsx
+++ b/biology/Microbiologie/Legionella_erythra/Legionella_erythra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Legionella erythra est une espèce de bactéries gram-négatives de la famille des Legionellaceae qui contrairement aux autres Legionella décrites avant elle, est de couleur rouge sur milieu de culture.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de l'espèce Legionella erythra sont des bacilles gram-négatifs[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de l'espèce Legionella erythra sont des bacilles gram-négatifs
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Legionella erythra Brenner et al. 1985[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Legionella erythra Brenner et al. 1985.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est sa couleur rouge sur milieu de culture qui a guidé le choix de son nom d'espèce et l'étymologie est la suivante : de l'adjectif féminin grec erythra qui signifie rouge[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est sa couleur rouge sur milieu de culture qui a guidé le choix de son nom d'espèce et l'étymologie est la suivante : de l'adjectif féminin grec erythra qui signifie rouge.
 </t>
         </is>
       </c>
